--- a/output_file/June sheet 90 degree/example.xlsx
+++ b/output_file/June sheet 90 degree/example.xlsx
@@ -43,19 +43,19 @@
     <t>LC Steel</t>
   </si>
   <si>
+    <t>304 SS</t>
+  </si>
+  <si>
+    <t>6061 Al</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
     <t>Validity_Check_Value_of_Translation_Error</t>
   </si>
   <si>
     <t>Validity_Check_Value_of_Rotation_Error</t>
-  </si>
-  <si>
-    <t>304 SS</t>
-  </si>
-  <si>
-    <t>6061 Al</t>
-  </si>
-  <si>
-    <t>Copper</t>
   </si>
 </sst>
 </file>
@@ -393,10 +393,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3.8761120837528648E-6</v>
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>6.737042247821481E-6</v>
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>4.6053454519269281E-6</v>
